--- a/biology/Biochimie/Facteur_nod/Facteur_nod.xlsx
+++ b/biology/Biochimie/Facteur_nod/Facteur_nod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les facteurs nod sont des lipochitooligosaccharides (LCO), formés d’une suite de 4 ou 5 unités de N-acétyl-D-glucosamine réunies par des liaisons β(1 → 4) (structure de la chitine), et comprenant une chaîne lipidique (acetil).
 </t>
@@ -511,7 +523,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les facteurs nod interviennent dans le phénomène de nodulation. Dans la nature, les plantes sont incapables de fixer l'azote atmosphérique, qui représente pourtant une source considérable (78 % de l'air). Des symbioses se mettent alors en place entre des bactéries capables de fixer l'azote atmosphérique, dite diazotrophes, et les plantes (généralement des légumineuses). 
 La symbiose se caractérise par une nodulation, c'est-à-dire la formation de nodules ou nodosités, contenant les bactéries. La plante « infectée » fournit les sucres et l'énergie issus de la photosynthèse, et bénéficie en retour des acides aminés produits par les bactéries par fixation de l'azote atmosphérique.
@@ -545,7 +559,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parallèlement dans les bactéries, on trouve des gènes spécifiques de la nodulation, appelés opéron nod. Ces opérons regroupent en fait trois catégories de gènes :
 Les gènes régulateurs (nod D) : ils codent les protéines constituant le facteur de transcription. Chez les diazotrophes, ce gène s’exprime de manière constitutive. Les facteurs de transcription sont donc continuellement synthétisés, que la bactérie soit en symbiose ou non ;
@@ -581,7 +597,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs expériences ont été menées afin de démontrer la spécificité des facteurs nod.
 Introduction d’une mutation dans les gènes spécifiques : la bactérie synthétise les facteurs nod, mais ceux-ci ne sont plus spécialisés. La bactérie ne peut dans ce cas pas vivre en symbiose avec sa plante.
